--- a/Packages/cn.etetet.wow/Luban/Config/Datas/QuestObjective.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Datas/QuestObjective.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229AEEFE-8DD1-0848-8A43-31552240E2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17211B19-AF7A-FC46-A95F-9F4F4EEC220C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="8300" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12460" yWindow="1380" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestObjectiveConfig" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -96,10 +96,6 @@
   </si>
   <si>
     <t>任务目标参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -139,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,16 +165,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +176,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,15 +213,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H7"/>
+      <selection activeCell="F4" sqref="F4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -538,12 +540,14 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
@@ -561,12 +565,12 @@
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
@@ -576,10 +580,10 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
@@ -597,51 +601,63 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -650,76 +666,12 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="7">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="7">
-        <v>4</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F1:I1"/>
+  <mergeCells count="4">
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.wow/Luban/Config/Datas/QuestObjective.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Datas/QuestObjective.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17211B19-AF7A-FC46-A95F-9F4F4EEC220C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D313336-1172-CF44-9FCD-3438DF99836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="1380" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestObjectiveConfig" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>Collectltem</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedCount</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要的数量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -216,13 +228,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -500,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:I4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -512,19 +524,19 @@
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="34.5" customWidth="1"/>
-    <col min="7" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" customWidth="1"/>
-    <col min="13" max="13" width="15.5" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="15" width="19.83203125" customWidth="1"/>
+    <col min="5" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="34.5" customWidth="1"/>
+    <col min="8" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" customWidth="1"/>
+    <col min="16" max="16" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,16 +552,19 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -565,14 +580,17 @@
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -580,12 +598,13 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -601,14 +620,17 @@
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -621,23 +643,24 @@
       <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -650,28 +673,29 @@
       <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
